--- a/tables/Materials.xlsx
+++ b/tables/Materials.xlsx
@@ -771,7 +771,6 @@
       <sheetName val="Attributes"/>
       <sheetName val="Sheet2"/>
       <sheetName val="MissileSpeed"/>
-      <sheetName val="Materials"/>
       <sheetName val="Categories"/>
       <sheetName val="Size&amp;Weight"/>
       <sheetName val="Treasure"/>
@@ -779,19 +778,18 @@
       <sheetName val="GMScreen"/>
       <sheetName val="Weapons"/>
       <sheetName val="Modifiers"/>
-      <sheetName val="Skills"/>
       <sheetName val="SkillsSpecializations"/>
+      <sheetName val="Perks"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7">
         <row r="2">
           <cell r="A2" t="str">
             <v>Human</v>
@@ -1454,10 +1452,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1730,7 +1728,7 @@
   <dimension ref="C1:AN76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
